--- a/Hardware/S3-27-epaper-touch-pro/POS/BOM.xlsx
+++ b/Hardware/S3-27-epaper-touch-pro/POS/BOM.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="S3-27-epaper-touch" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="BOM" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="199">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -34,40 +34,535 @@
     <t xml:space="preserve">LCSC Part Number</t>
   </si>
   <si>
+    <t xml:space="preserve">Menge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C162420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7uF 50V_US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C49678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_Polarized 100uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitor_Tantalum_SMD:CP_EIA-3528-21_Kemet-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK6812MINI-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp4056:MX_SK6812MINI-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountingSwitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MountingHole:MountingHole_3.2mm_M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baer_klein:baerklein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbol:Symbol_CC-Noncommercial_CopperTop_Small</t>
+  </si>
+  <si>
     <t xml:space="preserve">AFC24-S24FIC-00</t>
   </si>
   <si>
     <t xml:space="preserve">J1</t>
   </si>
   <si>
-    <t xml:space="preserve">FPC-SMD_P0.50-24P_QCHF-SM-H2.0</t>
+    <t xml:space="preserve">tp4056:FPC-SMD_P0.50-24P_QCHF-SM-H2.0</t>
   </si>
   <si>
     <t xml:space="preserve">C262292</t>
   </si>
   <si>
+    <t xml:space="preserve">Conn_01x06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x06_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TochConn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp4056:FFC-SMD_6P-P0.50_FH34SRJ-6S-0.5SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C224194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groove sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">footprint:MOLEX-I2C-532530470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x05_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x04_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conn_01x06_Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10</t>
+  </si>
+  <si>
     <t xml:space="preserve">RESE</t>
   </si>
   <si>
     <t xml:space="preserve">JP1</t>
   </si>
   <si>
-    <t xml:space="preserve">SW-SMD_G-SWITCH_MK-12C02-G015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2911519 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESP32-S3-WROOM-1-N16R8</t>
+    <t xml:space="preserve">tp4056:SW-SMD_G-SWITCH_MK-12C02-G015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2911519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper_2_Bridged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper:SolderJumper-2_P1.3mm_Bridged_RoundedPad1.0x1.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10uH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp4056:IND-SMD_L4.0-W4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-323_SC-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si2301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDR03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptoDevice:R_LDR_10x8.5mm_P7.6mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW_Push</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp4056:SW-SMD_4P-L5.2-W5.2-P3.70-LS6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VCOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestPoint:TestPoint_Pad_D1.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connector_PinHeader_2.54mm:PinHeader_1x01_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESP32-S3-WROOM-1-N8</t>
   </si>
   <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
-    <t xml:space="preserve">ESP32-S3-WROOM-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2913202 </t>
+    <t xml:space="preserve">tp4056:ESP32-S3-WROOM-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2913204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RT9013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C47773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KoreanHropartsElecTYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp4056:USB-C_SMD-TYPE-C-31-M-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C165948</t>
   </si>
   <si>
     <t xml:space="preserve">BME680</t>
@@ -76,10 +571,10 @@
     <t xml:space="preserve">U5</t>
   </si>
   <si>
-    <t xml:space="preserve">Package_LGA:Bosch_LGA-8_3x3mm_P0.8mm_ClockwisePinNumbering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C125972 </t>
+    <t xml:space="preserve">tp4056:LGA-8_L3.0-W3.0-P0.80-TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C125972</t>
   </si>
   <si>
     <t xml:space="preserve">TPL5110</t>
@@ -91,7 +586,19 @@
     <t xml:space="preserve">Package_TO_SOT_SMD:SOT-23-6</t>
   </si>
   <si>
-    <t xml:space="preserve">C125830 </t>
+    <t xml:space="preserve">C125830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFM95W-868S2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF_Module:HOPERF_RFM9XW_SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2844472</t>
   </si>
   <si>
     <t xml:space="preserve">LSM6DSL</t>
@@ -106,13 +613,10 @@
     <t xml:space="preserve">C126672</t>
   </si>
   <si>
-    <t xml:space="preserve">FFC-SMD_6P-P0.50_FH34SRJ-6S-0.5SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C224194</t>
+    <t xml:space="preserve">U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rv3028:rv3028</t>
   </si>
 </sst>
 </file>
@@ -122,7 +626,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -142,11 +646,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,13 +690,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -217,18 +712,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="135.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.93"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -244,103 +740,1602 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B17" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
